--- a/MSO5000 LCR/Settings/Settings_Custom.xlsx
+++ b/MSO5000 LCR/Settings/Settings_Custom.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -450,6 +450,30 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Debug_Calc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Number_Display</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>si</t>
         </is>
       </c>
     </row>
